--- a/Molecule Evaluations/2016 May Syngene/Labtrove Post/Compounds Sent.xlsx
+++ b/Molecule Evaluations/2016 May Syngene/Labtrove Post/Compounds Sent.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25520" windowHeight="14540" tabRatio="500"/>
@@ -213,9 +213,6 @@
     <t>FC(F)OC(C=C1)=CC=C1C2=NN=C3C=NC=C(N4N=NC(C5=CC=CC=C5)=C4)N32</t>
   </si>
   <si>
-    <t>MMV693164</t>
-  </si>
-  <si>
     <t>OSM-S-362, EGT 51-4</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>3-(4-(difluoromethoxy)phenyl)-5-(4-phenyl-1H-1,2,3-triazol-1-yl)-[1,2,4]triazolo[4,3-a]pyrazine</t>
+  </si>
+  <si>
+    <t>MMV693165</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -644,7 +644,7 @@
     <col min="8" max="8" width="85.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -743,7 +743,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1040,15 +1040,15 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D13" s="7">
         <v>1.1200000000000001</v>
@@ -1060,10 +1060,10 @@
         <v>405.37</v>
       </c>
       <c r="G13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1073,7 +1073,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1090,7 +1090,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1107,7 +1107,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1124,7 +1124,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1141,7 +1141,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1158,7 +1158,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1175,7 +1175,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1192,7 +1192,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1209,7 +1209,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1226,7 +1226,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1243,7 +1243,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1260,7 +1260,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1277,7 +1277,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1294,7 +1294,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1311,7 +1311,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
